--- a/Excel/spectrumRequest.xlsx
+++ b/Excel/spectrumRequest.xlsx
@@ -1,17 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\IIITD\FIRST_SEM\OOPD\Project\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1366A687-A6B9-4280-9555-2FA12E6BA6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="spectrumRequest" sheetId="1" r:id="rId4"/>
+    <sheet name="spectrumRequest" sheetId="1" r:id="rId1"/>
+    <sheet name="700" sheetId="6" r:id="rId2"/>
+    <sheet name="800" sheetId="7" r:id="rId3"/>
+    <sheet name="1800" sheetId="8" r:id="rId4"/>
+    <sheet name="3500" sheetId="9" r:id="rId5"/>
+    <sheet name="Airtel" sheetId="2" r:id="rId6"/>
+    <sheet name="BSNL" sheetId="3" r:id="rId7"/>
+    <sheet name="JIO" sheetId="4" r:id="rId8"/>
+    <sheet name="Vodafone" sheetId="5" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1800'!$A$1:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3500'!$A$1:$C$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'700'!$A$1:$C$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'800'!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Airtel!$A$1:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">BSNL!$A$1:$C$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">JIO!$A$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">spectrumRequest!$A$1:$D$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Vodafone!$A$1:$C$28</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -58,19 +99,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm-dd"/>
-    <numFmt numFmtId="165" formatCode="m-d"/>
+    <numFmt numFmtId="164" formatCode="mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -81,42 +123,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -306,20 +351,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -333,9 +383,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45094.0</v>
+        <v>45094</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -344,12 +394,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45238.0</v>
+        <v>45238</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -358,12 +408,12 @@
         <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44947.0</v>
+        <v>44947</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -372,12 +422,12 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44971.0</v>
+        <v>44971</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -386,12 +436,12 @@
         <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45003.0</v>
+        <v>45003</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -400,12 +450,12 @@
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45126.0</v>
+        <v>45126</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -414,12 +464,12 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45179.0</v>
+        <v>45179</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -428,12 +478,12 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45123.0</v>
+        <v>45123</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -442,12 +492,12 @@
         <v>13</v>
       </c>
       <c r="D9" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45184.0</v>
+        <v>45184</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -456,12 +506,12 @@
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44946.0</v>
+        <v>44946</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -470,12 +520,12 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45153.0</v>
+        <v>45153</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -484,12 +534,12 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44946.0</v>
+        <v>44946</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -498,12 +548,12 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45272.0</v>
+        <v>45272</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -512,12 +562,12 @@
         <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45177.0</v>
+        <v>45177</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -526,12 +576,12 @@
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45247.0</v>
+        <v>45247</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
@@ -540,12 +590,12 @@
         <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44969.0</v>
+        <v>44969</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
@@ -554,12 +604,12 @@
         <v>13</v>
       </c>
       <c r="D17" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45186.0</v>
+        <v>45186</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -568,12 +618,12 @@
         <v>11</v>
       </c>
       <c r="D18" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45159.0</v>
+        <v>45159</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
@@ -582,12 +632,12 @@
         <v>13</v>
       </c>
       <c r="D19" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45219.0</v>
+        <v>45219</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -596,12 +646,12 @@
         <v>7</v>
       </c>
       <c r="D20" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44972.0</v>
+        <v>44972</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -610,12 +660,12 @@
         <v>7</v>
       </c>
       <c r="D21" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45280.0</v>
+        <v>45280</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
@@ -624,12 +674,12 @@
         <v>10</v>
       </c>
       <c r="D22" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45272.0</v>
+        <v>45272</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
@@ -638,12 +688,12 @@
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45183.0</v>
+        <v>45183</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
@@ -652,12 +702,12 @@
         <v>10</v>
       </c>
       <c r="D24" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45181.0</v>
+        <v>45181</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>8</v>
@@ -666,12 +716,12 @@
         <v>13</v>
       </c>
       <c r="D25" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45147.0</v>
+        <v>45147</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
@@ -680,12 +730,12 @@
         <v>9</v>
       </c>
       <c r="D26" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45091.0</v>
+        <v>45091</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
@@ -694,12 +744,12 @@
         <v>7</v>
       </c>
       <c r="D27" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45282.0</v>
+        <v>45282</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
@@ -708,12 +758,12 @@
         <v>11</v>
       </c>
       <c r="D28" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44941.0</v>
+        <v>44941</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
@@ -722,12 +772,12 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>45209.0</v>
+        <v>45209</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
@@ -736,12 +786,12 @@
         <v>10</v>
       </c>
       <c r="D30" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45088.0</v>
+        <v>45088</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
@@ -750,12 +800,12 @@
         <v>10</v>
       </c>
       <c r="D31" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>45272.0</v>
+        <v>45272</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
@@ -764,12 +814,12 @@
         <v>9</v>
       </c>
       <c r="D32" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44969.0</v>
+        <v>44969</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
@@ -778,12 +828,12 @@
         <v>7</v>
       </c>
       <c r="D33" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44999.0</v>
+        <v>44999</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>4</v>
@@ -792,12 +842,12 @@
         <v>9</v>
       </c>
       <c r="D34" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>45220.0</v>
+        <v>45220</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
@@ -806,12 +856,12 @@
         <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45068.0</v>
+        <v>45068</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
@@ -820,12 +870,12 @@
         <v>11</v>
       </c>
       <c r="D36" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45123.0</v>
+        <v>45123</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
@@ -834,12 +884,12 @@
         <v>9</v>
       </c>
       <c r="D37" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45006.0</v>
+        <v>45006</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
@@ -848,12 +898,12 @@
         <v>11</v>
       </c>
       <c r="D38" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>45250.0</v>
+        <v>45250</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
@@ -862,12 +912,12 @@
         <v>13</v>
       </c>
       <c r="D39" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45092.0</v>
+        <v>45092</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>4</v>
@@ -876,12 +926,12 @@
         <v>7</v>
       </c>
       <c r="D40" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45006.0</v>
+        <v>45006</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
@@ -890,12 +940,12 @@
         <v>11</v>
       </c>
       <c r="D41" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45152.0</v>
+        <v>45152</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
@@ -904,12 +954,12 @@
         <v>9</v>
       </c>
       <c r="D42" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45025.0</v>
+        <v>45025</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
@@ -918,12 +968,12 @@
         <v>10</v>
       </c>
       <c r="D43" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>45212.0</v>
+        <v>45212</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>6</v>
@@ -932,12 +982,12 @@
         <v>5</v>
       </c>
       <c r="D44" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45093.0</v>
+        <v>45093</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
@@ -946,12 +996,12 @@
         <v>7</v>
       </c>
       <c r="D45" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44978.0</v>
+        <v>44978</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>12</v>
@@ -960,12 +1010,12 @@
         <v>13</v>
       </c>
       <c r="D46" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45002.0</v>
+        <v>45002</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>8</v>
@@ -974,12 +1024,12 @@
         <v>5</v>
       </c>
       <c r="D47" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>45247.0</v>
+        <v>45247</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4</v>
@@ -988,12 +1038,12 @@
         <v>9</v>
       </c>
       <c r="D48" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45030.0</v>
+        <v>45030</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -1002,12 +1052,12 @@
         <v>11</v>
       </c>
       <c r="D49" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45054.0</v>
+        <v>45054</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>4</v>
@@ -1016,12 +1066,12 @@
         <v>7</v>
       </c>
       <c r="D50" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45099.0</v>
+        <v>45099</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>4</v>
@@ -1030,12 +1080,12 @@
         <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45088.0</v>
+        <v>45088</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>6</v>
@@ -1044,12 +1094,12 @@
         <v>11</v>
       </c>
       <c r="D52" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45156.0</v>
+        <v>45156</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
@@ -1058,12 +1108,12 @@
         <v>13</v>
       </c>
       <c r="D53" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>44995.0</v>
+        <v>44995</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>8</v>
@@ -1072,12 +1122,12 @@
         <v>11</v>
       </c>
       <c r="D54" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45066.0</v>
+        <v>45066</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>4</v>
@@ -1086,12 +1136,12 @@
         <v>10</v>
       </c>
       <c r="D55" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>45219.0</v>
+        <v>45219</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>6</v>
@@ -1100,12 +1150,12 @@
         <v>11</v>
       </c>
       <c r="D56" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45097.0</v>
+        <v>45097</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>4</v>
@@ -1114,12 +1164,12 @@
         <v>7</v>
       </c>
       <c r="D57" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45191.0</v>
+        <v>45191</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>6</v>
@@ -1128,12 +1178,12 @@
         <v>11</v>
       </c>
       <c r="D58" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>44974.0</v>
+        <v>44974</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>8</v>
@@ -1142,12 +1192,12 @@
         <v>7</v>
       </c>
       <c r="D59" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>45275.0</v>
+        <v>45275</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>6</v>
@@ -1156,12 +1206,12 @@
         <v>9</v>
       </c>
       <c r="D60" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45059.0</v>
+        <v>45059</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>12</v>
@@ -1170,12 +1220,12 @@
         <v>11</v>
       </c>
       <c r="D61" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45158.0</v>
+        <v>45158</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>6</v>
@@ -1184,12 +1234,12 @@
         <v>11</v>
       </c>
       <c r="D62" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45028.0</v>
+        <v>45028</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>12</v>
@@ -1198,12 +1248,12 @@
         <v>13</v>
       </c>
       <c r="D63" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45146.0</v>
+        <v>45146</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>12</v>
@@ -1212,12 +1262,12 @@
         <v>13</v>
       </c>
       <c r="D64" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45024.0</v>
+        <v>45024</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>8</v>
@@ -1226,12 +1276,12 @@
         <v>11</v>
       </c>
       <c r="D65" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>44993.0</v>
+        <v>44993</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>4</v>
@@ -1240,12 +1290,12 @@
         <v>11</v>
       </c>
       <c r="D66" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>44993.0</v>
+        <v>44993</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>12</v>
@@ -1254,12 +1304,12 @@
         <v>9</v>
       </c>
       <c r="D67" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45024.0</v>
+        <v>45024</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>6</v>
@@ -1268,12 +1318,12 @@
         <v>7</v>
       </c>
       <c r="D68" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>44993.0</v>
+        <v>44993</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>8</v>
@@ -1282,12 +1332,12 @@
         <v>5</v>
       </c>
       <c r="D69" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45126.0</v>
+        <v>45126</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>12</v>
@@ -1296,12 +1346,12 @@
         <v>10</v>
       </c>
       <c r="D70" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45067.0</v>
+        <v>45067</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>4</v>
@@ -1310,12 +1360,12 @@
         <v>11</v>
       </c>
       <c r="D71" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45184.0</v>
+        <v>45184</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>4</v>
@@ -1324,12 +1374,12 @@
         <v>10</v>
       </c>
       <c r="D72" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45067.0</v>
+        <v>45067</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>12</v>
@@ -1338,12 +1388,12 @@
         <v>10</v>
       </c>
       <c r="D73" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>45216.0</v>
+        <v>45216</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>8</v>
@@ -1352,12 +1402,12 @@
         <v>13</v>
       </c>
       <c r="D74" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>45249.0</v>
+        <v>45249</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>6</v>
@@ -1366,12 +1416,12 @@
         <v>7</v>
       </c>
       <c r="D75" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>45215.0</v>
+        <v>45215</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>4</v>
@@ -1380,12 +1430,12 @@
         <v>7</v>
       </c>
       <c r="D76" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45031.0</v>
+        <v>45031</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>8</v>
@@ -1394,12 +1444,12 @@
         <v>5</v>
       </c>
       <c r="D77" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45001.0</v>
+        <v>45001</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
@@ -1408,12 +1458,12 @@
         <v>11</v>
       </c>
       <c r="D78" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>45251.0</v>
+        <v>45251</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
@@ -1422,12 +1472,12 @@
         <v>9</v>
       </c>
       <c r="D79" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>45278.0</v>
+        <v>45278</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>12</v>
@@ -1436,12 +1486,12 @@
         <v>5</v>
       </c>
       <c r="D80" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45183.0</v>
+        <v>45183</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>6</v>
@@ -1450,12 +1500,12 @@
         <v>11</v>
       </c>
       <c r="D81" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>44938.0</v>
+        <v>44938</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>6</v>
@@ -1464,12 +1514,12 @@
         <v>5</v>
       </c>
       <c r="D82" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45189.0</v>
+        <v>45189</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>8</v>
@@ -1478,12 +1528,12 @@
         <v>7</v>
       </c>
       <c r="D83" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45093.0</v>
+        <v>45093</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>6</v>
@@ -1492,12 +1542,12 @@
         <v>5</v>
       </c>
       <c r="D84" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45092.0</v>
+        <v>45092</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>4</v>
@@ -1506,12 +1556,12 @@
         <v>5</v>
       </c>
       <c r="D85" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>45280.0</v>
+        <v>45280</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>8</v>
@@ -1520,12 +1570,12 @@
         <v>10</v>
       </c>
       <c r="D86" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>45276.0</v>
+        <v>45276</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>6</v>
@@ -1534,12 +1584,12 @@
         <v>11</v>
       </c>
       <c r="D87" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45160.0</v>
+        <v>45160</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>8</v>
@@ -1548,12 +1598,12 @@
         <v>9</v>
       </c>
       <c r="D88" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>45221.0</v>
+        <v>45221</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>8</v>
@@ -1562,12 +1612,12 @@
         <v>10</v>
       </c>
       <c r="D89" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45155.0</v>
+        <v>45155</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>4</v>
@@ -1576,12 +1626,12 @@
         <v>7</v>
       </c>
       <c r="D90" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45029.0</v>
+        <v>45029</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>6</v>
@@ -1590,12 +1640,12 @@
         <v>13</v>
       </c>
       <c r="D91" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>44974.0</v>
+        <v>44974</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>8</v>
@@ -1604,12 +1654,12 @@
         <v>13</v>
       </c>
       <c r="D92" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45157.0</v>
+        <v>45157</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>12</v>
@@ -1618,12 +1668,12 @@
         <v>13</v>
       </c>
       <c r="D93" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45031.0</v>
+        <v>45031</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>6</v>
@@ -1632,12 +1682,12 @@
         <v>10</v>
       </c>
       <c r="D94" s="1">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45125.0</v>
+        <v>45125</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>12</v>
@@ -1646,12 +1696,12 @@
         <v>5</v>
       </c>
       <c r="D95" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45208.0</v>
+        <v>45208</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>12</v>
@@ -1660,12 +1710,12 @@
         <v>10</v>
       </c>
       <c r="D96" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>45219.0</v>
+        <v>45219</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>12</v>
@@ -1674,12 +1724,12 @@
         <v>10</v>
       </c>
       <c r="D97" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>44996.0</v>
+        <v>44996</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>6</v>
@@ -1688,12 +1738,12 @@
         <v>11</v>
       </c>
       <c r="D98" s="1">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>44993.0</v>
+        <v>44993</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>6</v>
@@ -1702,12 +1752,12 @@
         <v>10</v>
       </c>
       <c r="D99" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>44943.0</v>
+        <v>44943</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>6</v>
@@ -1716,12 +1766,12 @@
         <v>10</v>
       </c>
       <c r="D100" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>44997.0</v>
+        <v>44997</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>8</v>
@@ -1730,10 +1780,4112 @@
         <v>5</v>
       </c>
       <c r="D101" s="1">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:D101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD0286B-0581-4468-92E2-3403BBB8C66B}">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>700</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1">
+        <v>700</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>700</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>700</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1">
+        <v>700</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>700</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>700</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>700</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>700</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="1">
+        <v>700</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>700</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1">
+        <v>700</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="1">
+        <v>700</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>700</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>700</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="1">
+        <v>700</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>700</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>700</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>700</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C21" xr:uid="{4DD0286B-0581-4468-92E2-3403BBB8C66B}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D349EC-4BA9-49D1-AF9E-E4A3F247738F}">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>800</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>800</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>800</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>800</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>800</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1">
+        <v>800</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>800</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1">
+        <v>800</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>800</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1">
+        <v>800</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>800</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1">
+        <v>800</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C23" xr:uid="{E9D349EC-4BA9-49D1-AF9E-E4A3F247738F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1000A2E-0D86-431F-81E4-70EFF6E6FE69}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C29" xr:uid="{B1000A2E-0D86-431F-81E4-70EFF6E6FE69}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C0B67E-9555-43CB-9DE3-FB417CADC7AE}">
+  <dimension ref="A1:S31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>3500</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3500</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3500</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3500</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3500</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3500</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3500</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3500</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3500</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3500</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3500</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3500</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3500</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3500</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C31" xr:uid="{C4C0B67E-9555-43CB-9DE3-FB417CADC7AE}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D38F261-F33D-4855-838F-226CB65D4ED9}">
+  <dimension ref="A1:U29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1">
+        <v>3500</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>700</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3500</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>700</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>800</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>700</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1800</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1800</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3500</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>700</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1800</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3500</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>800</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="1">
+        <v>800</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="1">
+        <v>800</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>700</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1800</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3500</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1800</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="1">
+        <v>700</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>800</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="1">
+        <v>800</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3500</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3500</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>700</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1800</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U18" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>800</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="1">
+        <v>700</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1800</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3500</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1">
+        <v>700</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1800</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1800</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="1">
+        <v>700</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1800</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>700</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="1">
+        <v>700</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1800</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>700</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1">
+        <v>700</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1800</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U23" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1800</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1800</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U24" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1800</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1800</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1800</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C29" xr:uid="{7D38F261-F33D-4855-838F-226CB65D4ED9}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F329B920-18B9-43E5-AF27-4506D7477807}">
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1800</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>3500</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>700</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1">
+        <v>800</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>800</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3500</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>3500</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1800</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1">
+        <v>800</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3500</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3500</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="1">
+        <v>700</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3500</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>800</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>800</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3500</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>800</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="1">
+        <v>800</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3500</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1800</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C25" xr:uid="{F329B920-18B9-43E5-AF27-4506D7477807}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850E695D-341A-4476-AF0E-19774EB9E30F}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>3500</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>800</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3500</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>800</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>800</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>700</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1800</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1">
+        <v>700</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1">
+        <v>700</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>800</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C22" xr:uid="{850E695D-341A-4476-AF0E-19774EB9E30F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE871691-376F-4562-AD13-E646C2FA10B3}">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1800</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1">
+        <v>700</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3500</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1">
+        <v>700</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3500</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3500</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3500</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3500</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="1">
+        <v>800</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>700</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1">
+        <v>700</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3500</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>800</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>800</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>700</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>800</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3500</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3500</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>700</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C28" xr:uid="{DE871691-376F-4562-AD13-E646C2FA10B3}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/spectrumRequest.xlsx
+++ b/Excel/spectrumRequest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\IIITD\FIRST_SEM\OOPD\Project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1366A687-A6B9-4280-9555-2FA12E6BA6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A2BB47-78BC-482B-ADCE-3F2035930010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
